--- a/data/hnvtxdata/CPAN/cpan_details_HARINAVI_10.123.138.193__Data.xlsx
+++ b/data/hnvtxdata/CPAN/cpan_details_HARINAVI_10.123.138.193__Data.xlsx
@@ -3323,7 +3323,7 @@
         <v>173</v>
       </c>
       <c r="O48" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P48" s="2" t="s">
         <v>22</v>
@@ -3364,7 +3364,7 @@
         <v>173</v>
       </c>
       <c r="O49" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P49" s="2" t="s">
         <v>22</v>
